--- a/Code/Results/Cases/Case_9_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.73396983064434</v>
+        <v>20.85489667057205</v>
       </c>
       <c r="C2">
-        <v>12.21738288771328</v>
+        <v>12.76375071226518</v>
       </c>
       <c r="D2">
-        <v>3.467347246870317</v>
+        <v>3.664068851021998</v>
       </c>
       <c r="E2">
-        <v>6.964813776816928</v>
+        <v>6.975145088114823</v>
       </c>
       <c r="F2">
-        <v>30.79184755968491</v>
+        <v>29.06320937666399</v>
       </c>
       <c r="G2">
-        <v>41.53785297087509</v>
+        <v>38.29862669664033</v>
       </c>
       <c r="H2">
-        <v>3.141650662206068</v>
+        <v>2.983814773842343</v>
       </c>
       <c r="I2">
-        <v>3.712733981032915</v>
+        <v>3.508809728808946</v>
       </c>
       <c r="J2">
-        <v>13.18527187791531</v>
+        <v>12.72739105410975</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.036693653217441</v>
+        <v>15.51755371171692</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.41706689287925</v>
       </c>
       <c r="N2">
-        <v>6.567479296758015</v>
+        <v>5.988627121777943</v>
       </c>
       <c r="O2">
-        <v>13.47584161515227</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.69694796499171</v>
+        <v>6.888310737664866</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.26337456866252</v>
+      </c>
+      <c r="R2">
+        <v>13.41941340143514</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.41250016193968</v>
+        <v>19.60028976680318</v>
       </c>
       <c r="C3">
-        <v>11.48107774891516</v>
+        <v>11.93002734694563</v>
       </c>
       <c r="D3">
-        <v>3.420262975684895</v>
+        <v>3.618718760509763</v>
       </c>
       <c r="E3">
-        <v>6.856938280887991</v>
+        <v>6.884109082629643</v>
       </c>
       <c r="F3">
-        <v>30.0239767403334</v>
+        <v>28.43215431746395</v>
       </c>
       <c r="G3">
-        <v>40.17648622923713</v>
+        <v>37.22668996468198</v>
       </c>
       <c r="H3">
-        <v>3.400496619070094</v>
+        <v>3.217551894706975</v>
       </c>
       <c r="I3">
-        <v>3.930204132421751</v>
+        <v>3.696707756133394</v>
       </c>
       <c r="J3">
-        <v>13.00581771398999</v>
+        <v>12.54876768779161</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.974750600754124</v>
+        <v>15.52081598590883</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.23470399403664</v>
       </c>
       <c r="N3">
-        <v>6.40577499892999</v>
+        <v>5.93161592853565</v>
       </c>
       <c r="O3">
-        <v>12.89170853536642</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.85183857140374</v>
+        <v>6.718821209211392</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.69100744792011</v>
+      </c>
+      <c r="R3">
+        <v>13.56342774835345</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.55635379480945</v>
+        <v>18.78530270939001</v>
       </c>
       <c r="C4">
-        <v>11.00774452627054</v>
+        <v>11.39258877064572</v>
       </c>
       <c r="D4">
-        <v>3.391496936915813</v>
+        <v>3.591309233452009</v>
       </c>
       <c r="E4">
-        <v>6.78877387546915</v>
+        <v>6.826574984379945</v>
       </c>
       <c r="F4">
-        <v>29.55047520144155</v>
+        <v>28.04263215119613</v>
       </c>
       <c r="G4">
-        <v>39.32867588533225</v>
+        <v>36.56359566630169</v>
       </c>
       <c r="H4">
-        <v>3.564871212601455</v>
+        <v>3.366130089348075</v>
       </c>
       <c r="I4">
-        <v>4.068942481820824</v>
+        <v>3.816978698472017</v>
       </c>
       <c r="J4">
-        <v>12.89764403267128</v>
+        <v>12.43797663526515</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.935301421728079</v>
+        <v>15.51885349094727</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.14058861893478</v>
       </c>
       <c r="N4">
-        <v>6.30514168068817</v>
+        <v>5.895337613429066</v>
       </c>
       <c r="O4">
-        <v>12.52049863268111</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.94794783934479</v>
+        <v>6.613684276807656</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.3266295030286</v>
+      </c>
+      <c r="R4">
+        <v>13.65333042228542</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.18917353780194</v>
+        <v>18.43512169776928</v>
       </c>
       <c r="C5">
-        <v>10.81625379017662</v>
+        <v>11.17400404142568</v>
       </c>
       <c r="D5">
-        <v>3.380492045752773</v>
+        <v>3.580997689288134</v>
       </c>
       <c r="E5">
-        <v>6.760136956690543</v>
+        <v>6.802394421600696</v>
       </c>
       <c r="F5">
-        <v>29.34538261922837</v>
+        <v>27.87230351834292</v>
       </c>
       <c r="G5">
-        <v>38.95931499355522</v>
+        <v>36.27223272984138</v>
       </c>
       <c r="H5">
-        <v>3.633724261819836</v>
+        <v>3.428404955597504</v>
       </c>
       <c r="I5">
-        <v>4.129394265647355</v>
+        <v>3.870215148764661</v>
       </c>
       <c r="J5">
-        <v>12.85001249214145</v>
+        <v>12.38863525220341</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.918573951542173</v>
+        <v>15.50986032573812</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.10159318396778</v>
       </c>
       <c r="N5">
-        <v>6.265131288211447</v>
+        <v>5.880002696030314</v>
       </c>
       <c r="O5">
-        <v>12.36477583519523</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.98646762786122</v>
+        <v>6.571869651109151</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.17363713995944</v>
+      </c>
+      <c r="R5">
+        <v>13.68982239817494</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.11875153795361</v>
+        <v>18.36782327103143</v>
       </c>
       <c r="C6">
-        <v>10.79235480604146</v>
+        <v>11.14567595407498</v>
       </c>
       <c r="D6">
-        <v>3.37950827350328</v>
+        <v>3.580211238891608</v>
       </c>
       <c r="E6">
-        <v>6.754912883379122</v>
+        <v>6.797974477624814</v>
       </c>
       <c r="F6">
-        <v>29.29684679691448</v>
+        <v>27.83028613350273</v>
       </c>
       <c r="G6">
-        <v>38.87179206678927</v>
+        <v>36.19912583192373</v>
       </c>
       <c r="H6">
-        <v>3.645822058096157</v>
+        <v>3.439354206356166</v>
       </c>
       <c r="I6">
-        <v>4.142810169354753</v>
+        <v>3.882948505088119</v>
       </c>
       <c r="J6">
-        <v>12.83715293330977</v>
+        <v>12.37561045176398</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.915423388773419</v>
+        <v>15.49953295847048</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.08901112055937</v>
       </c>
       <c r="N6">
-        <v>6.260067178432721</v>
+        <v>5.877163066380925</v>
       </c>
       <c r="O6">
-        <v>12.33694578238712</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.99177052526094</v>
+        <v>6.566454052131681</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.14631840883711</v>
+      </c>
+      <c r="R6">
+        <v>13.69527254213093</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.52796478311977</v>
+        <v>18.7480265641489</v>
       </c>
       <c r="C7">
-        <v>11.02715079392689</v>
+        <v>11.39993456780687</v>
       </c>
       <c r="D7">
-        <v>3.393625164460151</v>
+        <v>3.596374145473018</v>
       </c>
       <c r="E7">
-        <v>6.787210170630741</v>
+        <v>6.825219744982281</v>
       </c>
       <c r="F7">
-        <v>29.5085317374528</v>
+        <v>27.98073144221357</v>
       </c>
       <c r="G7">
-        <v>39.25334232323176</v>
+        <v>36.56351550218762</v>
       </c>
       <c r="H7">
-        <v>3.567356557186715</v>
+        <v>3.369235582865599</v>
       </c>
       <c r="I7">
-        <v>4.078511252889524</v>
+        <v>3.828610060393119</v>
       </c>
       <c r="J7">
-        <v>12.88346008247276</v>
+        <v>12.37177573586496</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.934138040834093</v>
+        <v>15.48459722558045</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.1142888231034</v>
       </c>
       <c r="N7">
-        <v>6.308930148618934</v>
+        <v>5.894032894141692</v>
       </c>
       <c r="O7">
-        <v>12.51356656163746</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.94550313477012</v>
+        <v>6.616865022261585</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.31601104038699</v>
+      </c>
+      <c r="R7">
+        <v>13.65149200582966</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.25879320442184</v>
+        <v>20.37317587125397</v>
       </c>
       <c r="C8">
-        <v>11.99496636234609</v>
+        <v>12.47192257700711</v>
       </c>
       <c r="D8">
-        <v>3.454007550069474</v>
+        <v>3.660584373229743</v>
       </c>
       <c r="E8">
-        <v>6.926522225852142</v>
+        <v>6.94284109396536</v>
       </c>
       <c r="F8">
-        <v>30.47737920777642</v>
+        <v>28.72617661974777</v>
       </c>
       <c r="G8">
-        <v>40.98172472500735</v>
+        <v>38.07267855503798</v>
       </c>
       <c r="H8">
-        <v>3.231762811965582</v>
+        <v>3.067795486128663</v>
       </c>
       <c r="I8">
-        <v>3.797889158643741</v>
+        <v>3.588056329078878</v>
       </c>
       <c r="J8">
-        <v>13.10541015952042</v>
+        <v>12.47890489408812</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.014462154709927</v>
+        <v>15.45735878891427</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.29795564588152</v>
       </c>
       <c r="N8">
-        <v>6.5175927155827</v>
+        <v>5.967203035455583</v>
       </c>
       <c r="O8">
-        <v>13.27102003300184</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.74654220404139</v>
+        <v>6.834123922068221</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.05060068125099</v>
+      </c>
+      <c r="R8">
+        <v>13.46528248249959</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33125908750226</v>
+        <v>23.27588193316255</v>
       </c>
       <c r="C9">
-        <v>13.68868814972602</v>
+        <v>14.37987415114481</v>
       </c>
       <c r="D9">
-        <v>3.569873084118409</v>
+        <v>3.775554007768884</v>
       </c>
       <c r="E9">
-        <v>7.187123336831609</v>
+        <v>7.16279245594398</v>
       </c>
       <c r="F9">
-        <v>32.42018977145166</v>
+        <v>30.31265403528088</v>
       </c>
       <c r="G9">
-        <v>44.37902792197558</v>
+        <v>40.83347151957392</v>
       </c>
       <c r="H9">
-        <v>2.613016803583389</v>
+        <v>2.510431493602895</v>
       </c>
       <c r="I9">
-        <v>3.273598608789193</v>
+        <v>3.135033499852132</v>
       </c>
       <c r="J9">
-        <v>13.57946790525417</v>
+        <v>12.89255309950876</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.162643561848248</v>
+        <v>15.45021633332726</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.85880265505589</v>
       </c>
       <c r="N9">
-        <v>6.907289991328327</v>
+        <v>6.103377545169131</v>
       </c>
       <c r="O9">
-        <v>14.65852839039171</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.36834563183098</v>
+        <v>7.244343852525319</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.40453100579205</v>
+      </c>
+      <c r="R9">
+        <v>13.11607143729765</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.2906846574947</v>
+        <v>25.07938673661421</v>
       </c>
       <c r="C10">
-        <v>14.85485447842364</v>
+        <v>15.62116566245746</v>
       </c>
       <c r="D10">
-        <v>3.650165743240415</v>
+        <v>3.868738734716377</v>
       </c>
       <c r="E10">
-        <v>7.357734599408817</v>
+        <v>7.307220316493623</v>
       </c>
       <c r="F10">
-        <v>33.61440384697087</v>
+        <v>31.15670246026631</v>
       </c>
       <c r="G10">
-        <v>46.46969883071078</v>
+        <v>42.89602992326615</v>
       </c>
       <c r="H10">
-        <v>2.212860573330513</v>
+        <v>2.157002679587771</v>
       </c>
       <c r="I10">
-        <v>2.925270203703847</v>
+        <v>2.841483134297596</v>
       </c>
       <c r="J10">
-        <v>13.87029262415198</v>
+        <v>12.85342260739411</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.262051564159843</v>
+        <v>15.2975606549887</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.21216725918424</v>
       </c>
       <c r="N10">
-        <v>7.124219281367799</v>
+        <v>6.196555006649593</v>
       </c>
       <c r="O10">
-        <v>15.53083447337819</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>13.08420362146215</v>
+        <v>7.471541903575996</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.23426877967569</v>
+      </c>
+      <c r="R10">
+        <v>12.86456086566509</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.54167994048717</v>
+        <v>25.27237552794042</v>
       </c>
       <c r="C11">
-        <v>15.52291747755149</v>
+        <v>16.15705670295292</v>
       </c>
       <c r="D11">
-        <v>3.631620189263267</v>
+        <v>3.852542707495052</v>
       </c>
       <c r="E11">
-        <v>7.396113919613165</v>
+        <v>7.345653595347605</v>
       </c>
       <c r="F11">
-        <v>32.44798475968308</v>
+        <v>29.82665365832456</v>
       </c>
       <c r="G11">
-        <v>44.82527549568857</v>
+        <v>42.16302808554461</v>
       </c>
       <c r="H11">
-        <v>3.04915189229975</v>
+        <v>3.021566940113086</v>
       </c>
       <c r="I11">
-        <v>2.851602341678956</v>
+        <v>2.790758795343932</v>
       </c>
       <c r="J11">
-        <v>13.46946473863122</v>
+        <v>11.93007733006394</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.319060302109087</v>
+        <v>14.52458423391402</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.6285033786576</v>
       </c>
       <c r="N11">
-        <v>6.700995341358457</v>
+        <v>6.278278677997985</v>
       </c>
       <c r="O11">
-        <v>15.27136421859355</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.90494222637959</v>
+        <v>7.0204074850371</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.94346334025452</v>
+      </c>
+      <c r="R11">
+        <v>12.78025745943793</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.37552874874575</v>
+        <v>25.11659399561289</v>
       </c>
       <c r="C12">
-        <v>15.82473723097914</v>
+        <v>16.36264066403272</v>
       </c>
       <c r="D12">
-        <v>3.599402641823025</v>
+        <v>3.806185467504677</v>
       </c>
       <c r="E12">
-        <v>7.489919935564808</v>
+        <v>7.438187386038275</v>
       </c>
       <c r="F12">
-        <v>31.24507039102643</v>
+        <v>28.63175126708803</v>
       </c>
       <c r="G12">
-        <v>43.06022456963826</v>
+        <v>40.94693953137518</v>
       </c>
       <c r="H12">
-        <v>4.346012332809079</v>
+        <v>4.327985615158052</v>
       </c>
       <c r="I12">
-        <v>2.840746748902127</v>
+        <v>2.783315629769181</v>
       </c>
       <c r="J12">
-        <v>13.08243293775652</v>
+        <v>11.36151273324017</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.398902212792742</v>
+        <v>13.97752345205285</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.11246688575322</v>
       </c>
       <c r="N12">
-        <v>6.308323734628258</v>
+        <v>6.378397493525885</v>
       </c>
       <c r="O12">
-        <v>14.86883293417675</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.8468341876035</v>
+        <v>6.601991414835412</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.53515758571496</v>
+      </c>
+      <c r="R12">
+        <v>12.79281084824069</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.84512068659599</v>
+        <v>24.67117789009071</v>
       </c>
       <c r="C13">
-        <v>15.89815502426884</v>
+        <v>16.38284046860145</v>
       </c>
       <c r="D13">
-        <v>3.557319828146893</v>
+        <v>3.734476486042613</v>
       </c>
       <c r="E13">
-        <v>7.624090346460968</v>
+        <v>7.57855725732643</v>
       </c>
       <c r="F13">
-        <v>29.86688116807132</v>
+        <v>27.4464090634677</v>
       </c>
       <c r="G13">
-        <v>40.96039085125993</v>
+        <v>39.00171106822064</v>
       </c>
       <c r="H13">
-        <v>5.735908739137141</v>
+        <v>5.718217542890113</v>
       </c>
       <c r="I13">
-        <v>2.893060390993749</v>
+        <v>2.825449641624991</v>
       </c>
       <c r="J13">
-        <v>12.65917315605843</v>
+        <v>11.09498563787103</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.495957986804439</v>
+        <v>13.54575566512298</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.60845714179971</v>
       </c>
       <c r="N13">
-        <v>5.921949425886846</v>
+        <v>6.494028141977958</v>
       </c>
       <c r="O13">
-        <v>14.31615096660763</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.87137866374423</v>
+        <v>6.190520902341482</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.00410933143665</v>
+      </c>
+      <c r="R13">
+        <v>12.86480407455943</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.29594598733961</v>
+        <v>24.21575327884614</v>
       </c>
       <c r="C14">
-        <v>15.85294242239039</v>
+        <v>16.31821644228579</v>
       </c>
       <c r="D14">
-        <v>3.524263344262723</v>
+        <v>3.676815226394318</v>
       </c>
       <c r="E14">
-        <v>7.744918261240239</v>
+        <v>7.710068035162261</v>
       </c>
       <c r="F14">
-        <v>28.80647214322659</v>
+        <v>26.60215032377941</v>
       </c>
       <c r="G14">
-        <v>39.30424670687175</v>
+        <v>37.28657141146581</v>
       </c>
       <c r="H14">
-        <v>6.734136475516535</v>
+        <v>6.71455100740345</v>
       </c>
       <c r="I14">
-        <v>2.961173414610426</v>
+        <v>2.880934830414498</v>
       </c>
       <c r="J14">
-        <v>12.34274611261987</v>
+        <v>11.0256667019321</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.576244447194439</v>
+        <v>13.28503474482506</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.25768679377981</v>
       </c>
       <c r="N14">
-        <v>5.661077649452286</v>
+        <v>6.586022458640385</v>
       </c>
       <c r="O14">
-        <v>13.85418378472454</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.92800844530155</v>
+        <v>5.912225866860807</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.56926295177819</v>
+      </c>
+      <c r="R14">
+        <v>12.94023881496434</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.07537681363916</v>
+        <v>24.03300237981464</v>
       </c>
       <c r="C15">
-        <v>15.79974090597308</v>
+        <v>16.26788884760071</v>
       </c>
       <c r="D15">
-        <v>3.514035828652793</v>
+        <v>3.659357511979989</v>
       </c>
       <c r="E15">
-        <v>7.770114144767444</v>
+        <v>7.741101087300148</v>
       </c>
       <c r="F15">
-        <v>28.49972602259047</v>
+        <v>26.38304434130214</v>
       </c>
       <c r="G15">
-        <v>38.80716542265839</v>
+        <v>36.70588011649453</v>
       </c>
       <c r="H15">
-        <v>6.969703399628485</v>
+        <v>6.948676812402363</v>
       </c>
       <c r="I15">
-        <v>2.996246101776527</v>
+        <v>2.910795398967127</v>
       </c>
       <c r="J15">
-        <v>12.25441203264138</v>
+        <v>11.05572554551775</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.592806768213768</v>
+        <v>13.2342350291155</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.16837736324346</v>
       </c>
       <c r="N15">
-        <v>5.598047095428628</v>
+        <v>6.605420041768048</v>
       </c>
       <c r="O15">
-        <v>13.70794135072383</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.95543710841133</v>
+        <v>5.845300301600076</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.43479029789785</v>
+      </c>
+      <c r="R15">
+        <v>12.96708843127115</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32630660897405</v>
+        <v>23.40741794230777</v>
       </c>
       <c r="C16">
-        <v>15.32590931758426</v>
+        <v>15.85460504669763</v>
       </c>
       <c r="D16">
-        <v>3.487916432678907</v>
+        <v>3.621134391826379</v>
       </c>
       <c r="E16">
-        <v>7.66532609099949</v>
+        <v>7.66237742774481</v>
       </c>
       <c r="F16">
-        <v>28.20056317727301</v>
+        <v>26.37093780563361</v>
       </c>
       <c r="G16">
-        <v>38.20305669232027</v>
+        <v>35.53840093130788</v>
       </c>
       <c r="H16">
-        <v>6.800556681896118</v>
+        <v>6.768803013702016</v>
       </c>
       <c r="I16">
-        <v>3.139525253898795</v>
+        <v>3.02826266151545</v>
       </c>
       <c r="J16">
-        <v>12.19978031140134</v>
+        <v>11.48718229416041</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.526518565820361</v>
+        <v>13.40532290737807</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.18730090036526</v>
       </c>
       <c r="N16">
-        <v>5.579200601223525</v>
+        <v>6.54007438247738</v>
       </c>
       <c r="O16">
-        <v>13.42391753448309</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.0610745242247</v>
+        <v>5.830690407094901</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.19334304356117</v>
+      </c>
+      <c r="R16">
+        <v>13.02915795132089</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.04657951984361</v>
+        <v>23.15930803614594</v>
       </c>
       <c r="C17">
-        <v>14.98020303290767</v>
+        <v>15.55193672238858</v>
       </c>
       <c r="D17">
-        <v>3.485549182892635</v>
+        <v>3.622442805760118</v>
       </c>
       <c r="E17">
-        <v>7.512295610355378</v>
+        <v>7.518104169650696</v>
       </c>
       <c r="F17">
-        <v>28.54655724279503</v>
+        <v>26.79318669077877</v>
       </c>
       <c r="G17">
-        <v>38.64605945418452</v>
+        <v>35.67406495646023</v>
       </c>
       <c r="H17">
-        <v>6.117070413260342</v>
+        <v>6.075839401114376</v>
       </c>
       <c r="I17">
-        <v>3.214165851961281</v>
+        <v>3.090772396002121</v>
       </c>
       <c r="J17">
-        <v>12.32795524601916</v>
+        <v>11.80383001735163</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.428947995419376</v>
+        <v>13.67374730607605</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.3745696767474</v>
       </c>
       <c r="N17">
-        <v>5.701434406130045</v>
+        <v>6.436866196968325</v>
       </c>
       <c r="O17">
-        <v>13.45838902187301</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.11208796959569</v>
+        <v>5.964953720506811</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.24118820220409</v>
+      </c>
+      <c r="R17">
+        <v>13.04430221228524</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.164686552777</v>
+        <v>23.24913826226563</v>
       </c>
       <c r="C18">
-        <v>14.69626471111109</v>
+        <v>15.32046171954044</v>
       </c>
       <c r="D18">
-        <v>3.504178444476321</v>
+        <v>3.653665295795513</v>
       </c>
       <c r="E18">
-        <v>7.342590755601976</v>
+        <v>7.344712956983463</v>
       </c>
       <c r="F18">
-        <v>29.51182684849936</v>
+        <v>27.70424167766488</v>
       </c>
       <c r="G18">
-        <v>40.08532941434537</v>
+        <v>36.84632432204435</v>
       </c>
       <c r="H18">
-        <v>4.953423702342647</v>
+        <v>4.900904971554508</v>
       </c>
       <c r="I18">
-        <v>3.225740706749407</v>
+        <v>3.098033065094354</v>
       </c>
       <c r="J18">
-        <v>12.63654684722703</v>
+        <v>12.15857016797852</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.315703080761173</v>
+        <v>14.09653062971162</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.75673414508458</v>
       </c>
       <c r="N18">
-        <v>5.973064851027995</v>
+        <v>6.310691771632169</v>
       </c>
       <c r="O18">
-        <v>13.77474970748527</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.13564539776847</v>
+        <v>6.256644938171499</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.55430038976641</v>
+      </c>
+      <c r="R18">
+        <v>13.02716447643361</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.55424774099407</v>
+        <v>23.57397417574391</v>
       </c>
       <c r="C19">
-        <v>14.5224012487153</v>
+        <v>15.20982155996939</v>
       </c>
       <c r="D19">
-        <v>3.543893708454976</v>
+        <v>3.712224983359616</v>
       </c>
       <c r="E19">
-        <v>7.237638252245304</v>
+        <v>7.226664514516588</v>
       </c>
       <c r="F19">
-        <v>30.8329714447711</v>
+        <v>28.8923488429888</v>
       </c>
       <c r="G19">
-        <v>42.08624502762669</v>
+        <v>38.58118685643828</v>
       </c>
       <c r="H19">
-        <v>3.622391560611523</v>
+        <v>3.55519280379955</v>
       </c>
       <c r="I19">
-        <v>3.202045080661054</v>
+        <v>3.080025938485031</v>
       </c>
       <c r="J19">
-        <v>13.04446026016598</v>
+        <v>12.53570780958266</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.233573577929503</v>
+        <v>14.5932849999198</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.24445394731262</v>
       </c>
       <c r="N19">
-        <v>6.371368701891182</v>
+        <v>6.208975478336511</v>
       </c>
       <c r="O19">
-        <v>14.28006424682497</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>13.15555743725036</v>
+        <v>6.679558910249268</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.04654817420432</v>
+      </c>
+      <c r="R19">
+        <v>13.0017105703891</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.7300023610767</v>
+        <v>24.58986040288239</v>
       </c>
       <c r="C20">
-        <v>14.61035303396695</v>
+        <v>15.39115031617189</v>
       </c>
       <c r="D20">
-        <v>3.635076195583535</v>
+        <v>3.841571277114945</v>
       </c>
       <c r="E20">
-        <v>7.309566997809688</v>
+        <v>7.266436997949581</v>
       </c>
       <c r="F20">
-        <v>33.1852104516896</v>
+        <v>30.89763348237831</v>
       </c>
       <c r="G20">
-        <v>45.7237751470657</v>
+        <v>41.94212556594483</v>
       </c>
       <c r="H20">
-        <v>2.320250587736865</v>
+        <v>2.249247605151492</v>
       </c>
       <c r="I20">
-        <v>3.04650317610727</v>
+        <v>2.951177348826328</v>
       </c>
       <c r="J20">
-        <v>13.75152918693184</v>
+        <v>12.99772323613631</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.233832920417995</v>
+        <v>15.30663894629034</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.08306318513142</v>
       </c>
       <c r="N20">
-        <v>7.077082108636468</v>
+        <v>6.171867217988884</v>
       </c>
       <c r="O20">
-        <v>15.29029464783286</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.15145219002675</v>
+        <v>7.42259730739159</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.01727369952002</v>
+      </c>
+      <c r="R20">
+        <v>12.92911330454502</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.28061047642534</v>
+        <v>25.86533932104344</v>
       </c>
       <c r="C21">
-        <v>15.43456511715887</v>
+        <v>16.11124475788671</v>
       </c>
       <c r="D21">
-        <v>3.7066697943438</v>
+        <v>3.981217046074941</v>
       </c>
       <c r="E21">
-        <v>7.458733112941962</v>
+        <v>7.394651171288228</v>
       </c>
       <c r="F21">
-        <v>34.41417421368129</v>
+        <v>31.45360823510415</v>
       </c>
       <c r="G21">
-        <v>47.79104340733897</v>
+        <v>45.11019131819229</v>
       </c>
       <c r="H21">
-        <v>1.974510992753114</v>
+        <v>1.952677170810586</v>
       </c>
       <c r="I21">
-        <v>2.770088100169525</v>
+        <v>2.728963499057494</v>
       </c>
       <c r="J21">
-        <v>14.07836987509053</v>
+        <v>12.17277813147265</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.313625359371278</v>
+        <v>15.15290246554529</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.33105619154548</v>
       </c>
       <c r="N21">
-        <v>7.334230472177565</v>
+        <v>6.236156158699786</v>
       </c>
       <c r="O21">
-        <v>16.05292741848451</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.94902670192234</v>
+        <v>7.685738438043177</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.68313111451962</v>
+      </c>
+      <c r="R21">
+        <v>12.73918753307485</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24110507659662</v>
+        <v>26.64582265950318</v>
       </c>
       <c r="C22">
-        <v>15.94276107582186</v>
+        <v>16.53909389282932</v>
       </c>
       <c r="D22">
-        <v>3.74755541493622</v>
+        <v>4.071330399970044</v>
       </c>
       <c r="E22">
-        <v>7.549914205556376</v>
+        <v>7.475383076093961</v>
       </c>
       <c r="F22">
-        <v>35.15507547771449</v>
+        <v>31.74157987124577</v>
       </c>
       <c r="G22">
-        <v>49.04740941377217</v>
+        <v>47.18164517335482</v>
       </c>
       <c r="H22">
-        <v>1.764808667608391</v>
+        <v>1.774609235347506</v>
       </c>
       <c r="I22">
-        <v>2.583994203408899</v>
+        <v>2.575357219500524</v>
       </c>
       <c r="J22">
-        <v>14.27847379389763</v>
+        <v>11.58481692026761</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.364221322043154</v>
+        <v>15.02832188207174</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.47591032427548</v>
       </c>
       <c r="N22">
-        <v>7.463386657843215</v>
+        <v>6.278385126221081</v>
       </c>
       <c r="O22">
-        <v>16.50410547293926</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.81531885047377</v>
+        <v>7.816913974221593</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.06869793970303</v>
+      </c>
+      <c r="R22">
+        <v>12.61851508885567</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.7527720354085</v>
+        <v>26.27169913123844</v>
       </c>
       <c r="C23">
-        <v>15.6539950811924</v>
+        <v>16.31605674520756</v>
       </c>
       <c r="D23">
-        <v>3.723305247798915</v>
+        <v>4.012198516517774</v>
       </c>
       <c r="E23">
-        <v>7.50249243755565</v>
+        <v>7.432613522899763</v>
       </c>
       <c r="F23">
-        <v>34.79989510921272</v>
+        <v>31.6771498019031</v>
       </c>
       <c r="G23">
-        <v>48.44720655596523</v>
+        <v>45.98050017409889</v>
       </c>
       <c r="H23">
-        <v>1.874846400364932</v>
+        <v>1.866463035195936</v>
       </c>
       <c r="I23">
-        <v>2.670240630637747</v>
+        <v>2.64088316235942</v>
       </c>
       <c r="J23">
-        <v>14.18603862461792</v>
+        <v>12.02620439415596</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.338150589009974</v>
+        <v>15.13738017328147</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.44464465497822</v>
       </c>
       <c r="N23">
-        <v>7.390165618808537</v>
+        <v>6.257097820147413</v>
       </c>
       <c r="O23">
-        <v>16.26927852043401</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.88912205579239</v>
+        <v>7.743691986123216</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.87696740606313</v>
+      </c>
+      <c r="R23">
+        <v>12.68235480604466</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.79039796080287</v>
+        <v>24.64400097719125</v>
       </c>
       <c r="C24">
-        <v>14.55280421960889</v>
+        <v>15.34018817902561</v>
       </c>
       <c r="D24">
-        <v>3.635833906024733</v>
+        <v>3.843600973964552</v>
       </c>
       <c r="E24">
-        <v>7.319051802512598</v>
+        <v>7.274108191335232</v>
       </c>
       <c r="F24">
-        <v>33.3804830795975</v>
+        <v>31.07970202654041</v>
       </c>
       <c r="G24">
-        <v>46.02989257830078</v>
+        <v>42.20874528890309</v>
       </c>
       <c r="H24">
-        <v>2.301474065415841</v>
+        <v>2.230779793048723</v>
       </c>
       <c r="I24">
-        <v>3.026100161996373</v>
+        <v>2.927798257842229</v>
       </c>
       <c r="J24">
-        <v>13.81628084300249</v>
+        <v>13.06458944106146</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.236270154528561</v>
+        <v>15.39839726236298</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.17072375759901</v>
       </c>
       <c r="N24">
-        <v>7.115618245854217</v>
+        <v>6.171228514685496</v>
       </c>
       <c r="O24">
-        <v>15.34391607038752</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>13.1653572272912</v>
+        <v>7.463711940495239</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.06978774313386</v>
+      </c>
+      <c r="R24">
+        <v>12.9333537302518</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50310397029806</v>
+        <v>22.50666430317678</v>
       </c>
       <c r="C25">
-        <v>13.28216375804195</v>
+        <v>13.9337226025273</v>
       </c>
       <c r="D25">
-        <v>3.542216841151719</v>
+        <v>3.744652597608964</v>
       </c>
       <c r="E25">
-        <v>7.116161979083032</v>
+        <v>7.102860505499634</v>
       </c>
       <c r="F25">
-        <v>31.8327704054906</v>
+        <v>29.85439272342089</v>
       </c>
       <c r="G25">
-        <v>43.3587546215394</v>
+        <v>39.89084257553166</v>
       </c>
       <c r="H25">
-        <v>2.778637943499081</v>
+        <v>2.658400113970137</v>
       </c>
       <c r="I25">
-        <v>3.427561577121931</v>
+        <v>3.271591588492281</v>
       </c>
       <c r="J25">
-        <v>13.42636981913033</v>
+        <v>12.83088827553963</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.122207397596653</v>
+        <v>15.43204989640564</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.67064190293304</v>
       </c>
       <c r="N25">
-        <v>6.81065506914743</v>
+        <v>6.066960001365971</v>
       </c>
       <c r="O25">
-        <v>14.28748566838861</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.46559285479932</v>
+        <v>7.142371477613301</v>
       </c>
       <c r="Q25">
+        <v>14.04810802923062</v>
+      </c>
+      <c r="R25">
+        <v>13.20843387816281</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
